--- a/misc/Plan.xlsx
+++ b/misc/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noago\Documents\DHBW\1. Semester\Website Projekt\Naturex\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B4155B-470F-4FD2-9137-BA666F9D0752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBAE68-67DA-4A79-AB7B-C9A012B4F642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,18 +229,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color indexed="64"/>
@@ -320,6 +308,18 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -336,16 +336,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09A6F571-54B1-4D69-9109-3BF93003BB3B}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09A6F571-54B1-4D69-9109-3BF93003BB3B}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:H17" xr:uid="{6C5EF2E5-CD1C-4274-B93A-8D1B245C1B57}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8A23EB26-55DC-45D6-AA81-76141F7292CF}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{3B8BD011-AEC7-4393-BBC9-783990C66E24}" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D2DE1565-01F9-4D75-918E-2AD2BEDD6BE0}" name="Column3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C62A1E3E-A5C3-4CDB-9063-61B66AEE7ADD}" name="Column4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A7113793-C1DA-4876-B41D-707E816652DA}" name="Column5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7C5AA570-370E-411D-AF4F-2A5527ACB24D}" name="Column6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9A73C844-68CF-4C48-929D-1C1B55342BF5}" name="Column7" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3B8BD011-AEC7-4393-BBC9-783990C66E24}" name="Column2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D2DE1565-01F9-4D75-918E-2AD2BEDD6BE0}" name="Column3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C62A1E3E-A5C3-4CDB-9063-61B66AEE7ADD}" name="Column4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A7113793-C1DA-4876-B41D-707E816652DA}" name="Column5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7C5AA570-370E-411D-AF4F-2A5527ACB24D}" name="Column6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9A73C844-68CF-4C48-929D-1C1B55342BF5}" name="Column7" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{EFAE0473-56BD-4128-8CDE-92998394DE51}" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +713,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -747,6 +748,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
